--- a/nmadb/501350.xlsx
+++ b/nmadb/501350.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="10545"/>
@@ -9,16 +9,13 @@
   <sheets>
     <sheet name="hip Fx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>study</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -95,13 +92,16 @@
   </si>
   <si>
     <t>hip fracture risk</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,7 +311,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,44 +486,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="2"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -539,13 +537,13 @@
         <v>5057</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -562,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -582,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -602,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -622,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -642,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -662,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -682,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -702,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -722,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -742,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -762,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -782,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>7</v>
       </c>
@@ -802,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -822,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -842,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -862,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>9</v>
       </c>
@@ -882,10 +880,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -902,10 +900,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -919,7 +917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -933,7 +931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -947,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -961,7 +959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>11</v>
       </c>
@@ -975,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>11</v>
       </c>
@@ -989,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>12</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>12</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>12</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>13</v>
       </c>
@@ -1059,7 +1057,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>13</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>14</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>14</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>15</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>15</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>16</v>
       </c>
@@ -1143,7 +1141,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>16</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>17</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>18106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>17</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>18176</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>18</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>18</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>19</v>
       </c>
@@ -1227,7 +1225,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>19</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>20</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>20</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>21</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>21</v>
       </c>
@@ -1297,7 +1295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>5129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>22</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -1339,7 +1337,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>24</v>
       </c>
@@ -1367,7 +1365,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>24</v>
       </c>
@@ -1381,7 +1379,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>25</v>
       </c>
@@ -1395,7 +1393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>25</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>26</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>26</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>27</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>27</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>28</v>
       </c>
@@ -1479,7 +1477,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>28</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>29</v>
       </c>
@@ -1507,7 +1505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>29</v>
       </c>
@@ -1521,7 +1519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>30</v>
       </c>
@@ -1535,7 +1533,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>30</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>31</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>31</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>32</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>32</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>33</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
         <v>33</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>34</v>
       </c>
@@ -1647,7 +1645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
         <v>34</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>35</v>
       </c>
@@ -1675,7 +1673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>35</v>
       </c>
@@ -1689,7 +1687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
         <v>36</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>36</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>37</v>
       </c>
@@ -1731,7 +1729,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
         <v>37</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>38</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
         <v>38</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>39</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>39</v>
       </c>
@@ -1801,7 +1799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>40</v>
       </c>
@@ -1815,7 +1813,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>40</v>
       </c>
